--- a/20 開発資料/01.DB設計/TopTour2Nozomi.xlsx
+++ b/20 開発資料/01.DB設計/TopTour2Nozomi.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2554" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2528" uniqueCount="1049">
   <si>
     <t>Field Name</t>
   </si>
@@ -9300,12 +9300,6 @@
     <t>携帯電話番号（企画担当者）</t>
   </si>
   <si>
-    <t>講演会区分</t>
-  </si>
-  <si>
-    <t>削除フラグ</t>
-  </si>
-  <si>
     <t>TT_NumberOfInvitedMember__c</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -9334,15 +9328,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>= Source.MeetingDivision__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DeleteFlg__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>= Source.DeleteFlg__c</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -9693,17 +9679,57 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>講演会</t>
+    <t>TT_StartDateRemarks__c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TT_PlacePrefecture__c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>= Source.TT_PlacePrefecture__c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TT_ArrangePersonPhone__c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TT_ArrangePersonEmail__c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TT_ArrangePersonMobile__c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TT_ArrangePersonMobileMail__c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YYYYMMDDHHMMSS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hh:mm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会場検索中</t>
     </r>
     <r>
       <rPr>
@@ -9711,16 +9737,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,2=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>説明会</t>
+      <t>,2:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>打合・精算受付済</t>
     </r>
     <r>
       <rPr>
@@ -9728,16 +9754,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,3=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>外来講師</t>
+      <t>,
+3:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>精算のみ受付済</t>
     </r>
     <r>
       <rPr>
@@ -9745,30 +9772,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,4=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>その他</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>0=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>通常</t>
+      <t>,4:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>手配不可</t>
     </r>
     <r>
       <rPr>
@@ -9776,70 +9789,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,1=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>削除</t>
-    </r>
-  </si>
-  <si>
-    <t>TT_StartDateRemarks__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TT_PlacePrefecture__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>= Source.TT_PlacePrefecture__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TT_ArrangePersonPhone__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TT_ArrangePersonEmail__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TT_ArrangePersonMobile__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TT_ArrangePersonMobileMail__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>YYYYMMDDHHMMSS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>hh:mm</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>会場検索中</t>
+      <t>,
+5:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>承認依頼中</t>
     </r>
     <r>
       <rPr>
@@ -9847,16 +9807,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,2:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>打合・精算受付済</t>
+      <t>,6:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>会場決定済</t>
     </r>
     <r>
       <rPr>
@@ -9865,16 +9825,16 @@
         <family val="2"/>
       </rPr>
       <t>,
-3:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>精算のみ受付済</t>
+7:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>精算承認依頼中</t>
     </r>
     <r>
       <rPr>
@@ -9882,16 +9842,32 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,4:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>手配不可</t>
+      <t>,8:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">精算済
+</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>要</t>
     </r>
     <r>
       <rPr>
@@ -9899,17 +9875,114 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,
-5:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>承認依頼中</t>
+      <t>,0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>不要</t>
+    </r>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参加者ID</t>
+  </si>
+  <si>
+    <t>MPID</t>
+  </si>
+  <si>
+    <r>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>コード</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>氏名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>氏名（半角カタカナ）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>DCF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>施設コード</t>
+    </r>
+  </si>
+  <si>
+    <t>施設住所</t>
+  </si>
+  <si>
+    <t>DR性別</t>
+  </si>
+  <si>
+    <t>航空搭乗者年齢（年齢）</t>
+  </si>
+  <si>
+    <t>指定外申請理由（依頼）</t>
+  </si>
+  <si>
+    <t>参加／不参加</t>
+  </si>
+  <si>
+    <r>
+      <t>BU</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（担当</t>
     </r>
     <r>
       <rPr>
@@ -9917,16 +9990,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,6:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>会場決定済</t>
+      <t>MR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所属エリア（担当</t>
     </r>
     <r>
       <rPr>
@@ -9934,17 +10012,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,
-7:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>精算承認依頼中</t>
+      <t>MR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>所属営業所（担当</t>
     </r>
     <r>
       <rPr>
@@ -9952,32 +10034,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,8:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">精算済
-</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>1:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>要</t>
+      <t>MR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>担当者（担当</t>
     </r>
     <r>
       <rPr>
@@ -9985,114 +10056,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>,0:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>不要</t>
-    </r>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>参加者ID</t>
-  </si>
-  <si>
-    <t>MPID</t>
-  </si>
-  <si>
-    <r>
-      <t>DR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>コード</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>氏名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>氏名（半角カタカナ）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>DCF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>施設コード</t>
-    </r>
-  </si>
-  <si>
-    <t>施設住所</t>
-  </si>
-  <si>
-    <t>DR性別</t>
-  </si>
-  <si>
-    <t>航空搭乗者年齢（年齢）</t>
-  </si>
-  <si>
-    <t>指定外申請理由（依頼）</t>
-  </si>
-  <si>
-    <t>参加／不参加</t>
-  </si>
-  <si>
-    <r>
-      <t>BU</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>（担当</t>
+      <t>MR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>）名</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>担当者名（担当</t>
     </r>
     <r>
       <rPr>
@@ -10109,12 +10087,21 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>所属エリア（担当</t>
+      <t>）（ローマ字）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アドレス（担当</t>
     </r>
     <r>
       <rPr>
@@ -10136,7 +10123,7 @@
   </si>
   <si>
     <r>
-      <t>所属営業所（担当</t>
+      <t>携帯</t>
     </r>
     <r>
       <rPr>
@@ -10144,21 +10131,16 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>MR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>担当者（担当</t>
+      <t>Email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>アドレス（担当</t>
     </r>
     <r>
       <rPr>
@@ -10175,12 +10157,12 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>）名</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>担当者名（担当</t>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>携帯電話番号（担当</t>
     </r>
     <r>
       <rPr>
@@ -10197,21 +10179,15 @@
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t>）（ローマ字）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アドレス（担当</t>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
+    <t>オフィスの電話番号（担当MR）</t>
+  </si>
+  <si>
+    <r>
+      <t>チケット送付先</t>
     </r>
     <r>
       <rPr>
@@ -10219,92 +10195,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>MR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>携帯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Email</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>アドレス（担当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>携帯電話番号（担当</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>）</t>
-    </r>
-  </si>
-  <si>
-    <t>オフィスの電話番号（担当MR）</t>
-  </si>
-  <si>
-    <r>
-      <t>チケット送付先</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>FS</t>
     </r>
   </si>
@@ -10399,14 +10289,6 @@
   </si>
   <si>
     <t>=Source.TT_ArrangePersonMobileMail__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=Source.MeetingDivision__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=Source.DeleteFlg__c</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -10755,9 +10637,6 @@
     <t>タクシーチケット1～20：利用日（回答）</t>
   </si>
   <si>
-    <t>タクシーチケット1～20：利用チケット（回答）</t>
-  </si>
-  <si>
     <t>タクシーチケット1～20：券種（回答）</t>
   </si>
   <si>
@@ -11015,14 +10894,6 @@
   </si>
   <si>
     <t>=Source.TT_ReqEmployeeStayRemarks__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=Source.MeetingDivision__c</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>=Source.DeleteFlg__c</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -11199,7 +11070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -11424,12 +11295,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
@@ -12096,7 +11961,7 @@
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -12495,10 +12360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -12938,7 +12803,7 @@
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="10" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C17" s="24" t="s">
         <v>11</v>
@@ -12964,7 +12829,7 @@
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="10" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C18" s="24" t="s">
         <v>11</v>
@@ -13250,7 +13115,7 @@
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B29" s="10" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C29" s="24" t="s">
         <v>27</v>
@@ -13328,7 +13193,7 @@
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="10" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C32" s="24" t="s">
         <v>33</v>
@@ -13356,7 +13221,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B33" s="10" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="C33" s="24" t="s">
         <v>33</v>
@@ -13631,7 +13496,7 @@
       </c>
       <c r="I45" s="14"/>
       <c r="J45" s="17" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="K45" s="17"/>
     </row>
@@ -13653,7 +13518,7 @@
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="17" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="K46" s="17"/>
     </row>
@@ -13831,7 +13696,7 @@
         <v>238</v>
       </c>
       <c r="H55" s="16" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I55" s="14"/>
       <c r="J55" s="14"/>
@@ -14021,7 +13886,7 @@
       <c r="B65" s="14"/>
       <c r="C65" s="8"/>
       <c r="D65" s="43" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="13">
@@ -14031,7 +13896,7 @@
         <v>238</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I65" s="14"/>
       <c r="J65" s="14"/>
@@ -14041,7 +13906,7 @@
       <c r="B66" s="14"/>
       <c r="C66" s="8"/>
       <c r="D66" s="43" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="13">
@@ -14051,7 +13916,7 @@
         <v>238</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I66" s="14"/>
       <c r="J66" s="14"/>
@@ -14060,52 +13925,48 @@
     <row r="67" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B67" s="14"/>
       <c r="C67" s="8"/>
-      <c r="D67" s="43" t="s">
-        <v>783</v>
+      <c r="D67" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="E67" s="14"/>
       <c r="F67" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G67" s="14" t="s">
         <v>238</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>792</v>
+        <v>139</v>
       </c>
       <c r="I67" s="14"/>
-      <c r="J67" s="86" t="s">
-        <v>865</v>
-      </c>
+      <c r="J67" s="14"/>
       <c r="K67" s="17"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B68" s="14"/>
       <c r="C68" s="8"/>
-      <c r="D68" s="43" t="s">
-        <v>784</v>
+      <c r="D68" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G68" s="14" t="s">
         <v>238</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>794</v>
+        <v>139</v>
       </c>
       <c r="I68" s="14"/>
-      <c r="J68" s="17" t="s">
-        <v>866</v>
-      </c>
+      <c r="J68" s="14"/>
       <c r="K68" s="17"/>
     </row>
     <row r="69" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B69" s="14"/>
       <c r="C69" s="8"/>
       <c r="D69" s="39" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="13">
@@ -14125,7 +13986,7 @@
       <c r="B70" s="14"/>
       <c r="C70" s="8"/>
       <c r="D70" s="39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="13">
@@ -14140,46 +14001,6 @@
       <c r="I70" s="14"/>
       <c r="J70" s="14"/>
       <c r="K70" s="17"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B71" s="14"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E71" s="14"/>
-      <c r="F71" s="13">
-        <v>14</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="H71" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="17"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="14"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E72" s="14"/>
-      <c r="F72" s="13">
-        <v>20</v>
-      </c>
-      <c r="G72" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="H72" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14194,10 +14015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K118"/>
+  <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -14263,10 +14084,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C3" s="24" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>250</v>
@@ -14317,7 +14138,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>369</v>
@@ -14343,7 +14164,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>369</v>
@@ -14371,7 +14192,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="10" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C7" s="24" t="s">
         <v>369</v>
@@ -14395,7 +14216,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>369</v>
@@ -14423,7 +14244,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B9" s="10" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C9" s="24" t="s">
         <v>369</v>
@@ -14451,7 +14272,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B10" s="10" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C10" s="24" t="s">
         <v>369</v>
@@ -14477,7 +14298,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>369</v>
@@ -14505,7 +14326,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>369</v>
@@ -14529,7 +14350,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>369</v>
@@ -15467,7 +15288,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B50" s="10" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
       <c r="C50" s="24" t="s">
         <v>369</v>
@@ -15493,7 +15314,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B51" s="10" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
       <c r="C51" s="24" t="s">
         <v>369</v>
@@ -15519,7 +15340,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B52" s="10" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>369</v>
@@ -15545,7 +15366,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B53" s="10" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>369</v>
@@ -15785,7 +15606,7 @@
       <c r="B63" s="14"/>
       <c r="C63" s="8"/>
       <c r="D63" s="40" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="E63" s="14"/>
       <c r="F63" s="13">
@@ -15795,7 +15616,7 @@
         <v>238</v>
       </c>
       <c r="H63" s="16" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="I63" s="14"/>
       <c r="J63" s="14"/>
@@ -15815,7 +15636,7 @@
         <v>238</v>
       </c>
       <c r="H64" s="16" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="I64" s="14"/>
       <c r="J64" s="14"/>
@@ -15825,7 +15646,7 @@
       <c r="B65" s="14"/>
       <c r="C65" s="8"/>
       <c r="D65" s="43" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E65" s="14"/>
       <c r="F65" s="13">
@@ -15835,10 +15656,10 @@
         <v>238</v>
       </c>
       <c r="H65" s="16" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="I65" s="14"/>
-      <c r="J65" s="87" t="s">
+      <c r="J65" s="85" t="s">
         <v>253</v>
       </c>
       <c r="K65" s="17"/>
@@ -15846,8 +15667,8 @@
     <row r="66" spans="2:11" ht="60" x14ac:dyDescent="0.2">
       <c r="B66" s="14"/>
       <c r="C66" s="8"/>
-      <c r="D66" s="89" t="s">
-        <v>797</v>
+      <c r="D66" s="87" t="s">
+        <v>793</v>
       </c>
       <c r="E66" s="14"/>
       <c r="F66" s="13">
@@ -15857,11 +15678,11 @@
         <v>238</v>
       </c>
       <c r="H66" s="16" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="I66" s="14"/>
-      <c r="J66" s="88" t="s">
-        <v>877</v>
+      <c r="J66" s="86" t="s">
+        <v>871</v>
       </c>
       <c r="K66" s="17"/>
     </row>
@@ -15879,11 +15700,11 @@
         <v>238</v>
       </c>
       <c r="H67" s="16" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="I67" s="14"/>
       <c r="J67" s="14" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="K67" s="17"/>
     </row>
@@ -15891,7 +15712,7 @@
       <c r="B68" s="14"/>
       <c r="C68" s="8"/>
       <c r="D68" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E68" s="14"/>
       <c r="F68" s="13">
@@ -15901,11 +15722,11 @@
         <v>238</v>
       </c>
       <c r="H68" s="16" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="I68" s="14"/>
       <c r="J68" s="14" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
       <c r="K68" s="17"/>
     </row>
@@ -15913,7 +15734,7 @@
       <c r="B69" s="14"/>
       <c r="C69" s="8"/>
       <c r="D69" s="43" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="E69" s="14"/>
       <c r="F69" s="13">
@@ -15923,7 +15744,7 @@
         <v>238</v>
       </c>
       <c r="H69" s="16" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="I69" s="14"/>
       <c r="J69" s="14"/>
@@ -15933,7 +15754,7 @@
       <c r="B70" s="14"/>
       <c r="C70" s="8"/>
       <c r="D70" s="43" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="E70" s="14"/>
       <c r="F70" s="13">
@@ -15943,11 +15764,11 @@
         <v>238</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="I70" s="14"/>
       <c r="J70" s="14" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="K70" s="17"/>
     </row>
@@ -15955,7 +15776,7 @@
       <c r="B71" s="14"/>
       <c r="C71" s="8"/>
       <c r="D71" s="43" t="s">
-        <v>801</v>
+        <v>797</v>
       </c>
       <c r="E71" s="14"/>
       <c r="F71" s="13">
@@ -15965,7 +15786,7 @@
         <v>238</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="I71" s="14"/>
       <c r="J71" s="14"/>
@@ -15975,7 +15796,7 @@
       <c r="B72" s="14"/>
       <c r="C72" s="8"/>
       <c r="D72" s="43" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="E72" s="14"/>
       <c r="F72" s="13">
@@ -15985,7 +15806,7 @@
         <v>238</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
       <c r="I72" s="14"/>
       <c r="J72" s="19" t="s">
@@ -15997,7 +15818,7 @@
       <c r="B73" s="14"/>
       <c r="C73" s="8"/>
       <c r="D73" s="43" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="E73" s="14"/>
       <c r="F73" s="13">
@@ -16007,7 +15828,7 @@
         <v>238</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="I73" s="14"/>
       <c r="J73" s="14"/>
@@ -16017,7 +15838,7 @@
       <c r="B74" s="14"/>
       <c r="C74" s="8"/>
       <c r="D74" s="43" t="s">
-        <v>804</v>
+        <v>800</v>
       </c>
       <c r="E74" s="14"/>
       <c r="F74" s="13">
@@ -16027,7 +15848,7 @@
         <v>238</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="I74" s="14"/>
       <c r="J74" s="14"/>
@@ -16037,7 +15858,7 @@
       <c r="B75" s="14"/>
       <c r="C75" s="8"/>
       <c r="D75" s="43" t="s">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="E75" s="14"/>
       <c r="F75" s="13">
@@ -16047,11 +15868,11 @@
         <v>238</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="I75" s="14"/>
       <c r="J75" s="14" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="K75" s="17"/>
     </row>
@@ -16059,7 +15880,7 @@
       <c r="B76" s="14"/>
       <c r="C76" s="8"/>
       <c r="D76" s="43" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="E76" s="14"/>
       <c r="F76" s="13">
@@ -16069,11 +15890,11 @@
         <v>238</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="I76" s="14"/>
       <c r="J76" s="14" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
       <c r="K76" s="17"/>
     </row>
@@ -16081,7 +15902,7 @@
       <c r="B77" s="14"/>
       <c r="C77" s="8"/>
       <c r="D77" s="43" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="E77" s="14"/>
       <c r="F77" s="13">
@@ -16091,7 +15912,7 @@
         <v>238</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="I77" s="14"/>
       <c r="J77" s="14"/>
@@ -16101,7 +15922,7 @@
       <c r="B78" s="14"/>
       <c r="C78" s="8"/>
       <c r="D78" s="43" t="s">
-        <v>808</v>
+        <v>804</v>
       </c>
       <c r="E78" s="14"/>
       <c r="F78" s="13">
@@ -16111,10 +15932,10 @@
         <v>238</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="I78" s="14"/>
-      <c r="J78" s="87" t="s">
+      <c r="J78" s="85" t="s">
         <v>260</v>
       </c>
       <c r="K78" s="17"/>
@@ -16123,7 +15944,7 @@
       <c r="B79" s="14"/>
       <c r="C79" s="8"/>
       <c r="D79" s="43" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="E79" s="14"/>
       <c r="F79" s="13">
@@ -16133,11 +15954,11 @@
         <v>238</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="I79" s="14"/>
       <c r="J79" s="14" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="K79" s="17"/>
     </row>
@@ -16145,7 +15966,7 @@
       <c r="B80" s="14"/>
       <c r="C80" s="8"/>
       <c r="D80" s="43" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="E80" s="14"/>
       <c r="F80" s="13">
@@ -16155,7 +15976,7 @@
         <v>238</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="I80" s="14"/>
       <c r="J80" s="14"/>
@@ -16165,7 +15986,7 @@
       <c r="B81" s="14"/>
       <c r="C81" s="8"/>
       <c r="D81" s="43" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="E81" s="14"/>
       <c r="F81" s="13">
@@ -16175,11 +15996,11 @@
         <v>238</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="I81" s="14"/>
       <c r="J81" s="14" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="K81" s="17"/>
     </row>
@@ -16187,7 +16008,7 @@
       <c r="B82" s="14"/>
       <c r="C82" s="8"/>
       <c r="D82" s="43" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="E82" s="14"/>
       <c r="F82" s="13">
@@ -16197,11 +16018,11 @@
         <v>238</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="I82" s="14"/>
       <c r="J82" s="14" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="K82" s="17"/>
     </row>
@@ -16209,7 +16030,7 @@
       <c r="B83" s="14"/>
       <c r="C83" s="8"/>
       <c r="D83" s="43" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E83" s="14"/>
       <c r="F83" s="13">
@@ -16219,11 +16040,11 @@
         <v>238</v>
       </c>
       <c r="H83" s="16" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="I83" s="14"/>
       <c r="J83" s="14" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="K83" s="17"/>
     </row>
@@ -16231,7 +16052,7 @@
       <c r="B84" s="14"/>
       <c r="C84" s="8"/>
       <c r="D84" s="43" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="E84" s="14"/>
       <c r="F84" s="13">
@@ -16241,7 +16062,7 @@
         <v>238</v>
       </c>
       <c r="H84" s="16" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="I84" s="14"/>
       <c r="J84" s="14"/>
@@ -16251,7 +16072,7 @@
       <c r="B85" s="14"/>
       <c r="C85" s="8"/>
       <c r="D85" s="43" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="E85" s="14"/>
       <c r="F85" s="13">
@@ -16261,7 +16082,7 @@
         <v>238</v>
       </c>
       <c r="H85" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I85" s="14"/>
       <c r="J85" s="14"/>
@@ -16271,7 +16092,7 @@
       <c r="B86" s="14"/>
       <c r="C86" s="8"/>
       <c r="D86" s="43" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="E86" s="14"/>
       <c r="F86" s="13">
@@ -16281,7 +16102,7 @@
         <v>238</v>
       </c>
       <c r="H86" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I86" s="14"/>
       <c r="J86" s="14"/>
@@ -16291,7 +16112,7 @@
       <c r="B87" s="14"/>
       <c r="C87" s="8"/>
       <c r="D87" s="43" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="E87" s="14"/>
       <c r="F87" s="13">
@@ -16301,7 +16122,7 @@
         <v>238</v>
       </c>
       <c r="H87" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I87" s="14"/>
       <c r="J87" s="14"/>
@@ -16311,7 +16132,7 @@
       <c r="B88" s="14"/>
       <c r="C88" s="8"/>
       <c r="D88" s="43" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="E88" s="14"/>
       <c r="F88" s="13">
@@ -16321,7 +16142,7 @@
         <v>238</v>
       </c>
       <c r="H88" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I88" s="14"/>
       <c r="J88" s="14"/>
@@ -16331,7 +16152,7 @@
       <c r="B89" s="14"/>
       <c r="C89" s="8"/>
       <c r="D89" s="43" t="s">
-        <v>819</v>
+        <v>815</v>
       </c>
       <c r="E89" s="14"/>
       <c r="F89" s="13">
@@ -16341,7 +16162,7 @@
         <v>238</v>
       </c>
       <c r="H89" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I89" s="14"/>
       <c r="J89" s="14"/>
@@ -16351,7 +16172,7 @@
       <c r="B90" s="14"/>
       <c r="C90" s="8"/>
       <c r="D90" s="43" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="E90" s="14"/>
       <c r="F90" s="13">
@@ -16361,7 +16182,7 @@
         <v>238</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I90" s="14"/>
       <c r="J90" s="14"/>
@@ -16371,7 +16192,7 @@
       <c r="B91" s="14"/>
       <c r="C91" s="8"/>
       <c r="D91" s="43" t="s">
-        <v>821</v>
+        <v>817</v>
       </c>
       <c r="E91" s="14"/>
       <c r="F91" s="13">
@@ -16381,7 +16202,7 @@
         <v>238</v>
       </c>
       <c r="H91" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I91" s="14"/>
       <c r="J91" s="14"/>
@@ -16391,7 +16212,7 @@
       <c r="B92" s="14"/>
       <c r="C92" s="8"/>
       <c r="D92" s="43" t="s">
-        <v>822</v>
+        <v>818</v>
       </c>
       <c r="E92" s="14"/>
       <c r="F92" s="13">
@@ -16401,7 +16222,7 @@
         <v>238</v>
       </c>
       <c r="H92" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I92" s="14"/>
       <c r="J92" s="14"/>
@@ -16411,7 +16232,7 @@
       <c r="B93" s="14"/>
       <c r="C93" s="8"/>
       <c r="D93" s="43" t="s">
-        <v>823</v>
+        <v>819</v>
       </c>
       <c r="E93" s="14"/>
       <c r="F93" s="13">
@@ -16421,7 +16242,7 @@
         <v>238</v>
       </c>
       <c r="H93" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I93" s="14"/>
       <c r="J93" s="14"/>
@@ -16431,7 +16252,7 @@
       <c r="B94" s="14"/>
       <c r="C94" s="8"/>
       <c r="D94" s="43" t="s">
-        <v>824</v>
+        <v>820</v>
       </c>
       <c r="E94" s="14"/>
       <c r="F94" s="13">
@@ -16441,7 +16262,7 @@
         <v>238</v>
       </c>
       <c r="H94" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I94" s="14"/>
       <c r="J94" s="14"/>
@@ -16451,7 +16272,7 @@
       <c r="B95" s="14"/>
       <c r="C95" s="8"/>
       <c r="D95" s="43" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="E95" s="14"/>
       <c r="F95" s="13">
@@ -16461,7 +16282,7 @@
         <v>238</v>
       </c>
       <c r="H95" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I95" s="14"/>
       <c r="J95" s="14"/>
@@ -16471,7 +16292,7 @@
       <c r="B96" s="14"/>
       <c r="C96" s="8"/>
       <c r="D96" s="43" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="E96" s="14"/>
       <c r="F96" s="13">
@@ -16481,7 +16302,7 @@
         <v>238</v>
       </c>
       <c r="H96" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I96" s="14"/>
       <c r="J96" s="14"/>
@@ -16491,7 +16312,7 @@
       <c r="B97" s="14"/>
       <c r="C97" s="8"/>
       <c r="D97" s="43" t="s">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="13">
@@ -16501,7 +16322,7 @@
         <v>238</v>
       </c>
       <c r="H97" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I97" s="14"/>
       <c r="J97" s="14"/>
@@ -16511,7 +16332,7 @@
       <c r="B98" s="14"/>
       <c r="C98" s="8"/>
       <c r="D98" s="43" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="13">
@@ -16521,7 +16342,7 @@
         <v>238</v>
       </c>
       <c r="H98" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I98" s="14"/>
       <c r="J98" s="14"/>
@@ -16531,7 +16352,7 @@
       <c r="B99" s="14"/>
       <c r="C99" s="8"/>
       <c r="D99" s="43" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="13">
@@ -16541,7 +16362,7 @@
         <v>238</v>
       </c>
       <c r="H99" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I99" s="14"/>
       <c r="J99" s="14"/>
@@ -16551,7 +16372,7 @@
       <c r="B100" s="14"/>
       <c r="C100" s="8"/>
       <c r="D100" s="43" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="13">
@@ -16561,7 +16382,7 @@
         <v>238</v>
       </c>
       <c r="H100" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I100" s="14"/>
       <c r="J100" s="14"/>
@@ -16571,7 +16392,7 @@
       <c r="B101" s="14"/>
       <c r="C101" s="8"/>
       <c r="D101" s="43" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="E101" s="14"/>
       <c r="F101" s="13">
@@ -16581,7 +16402,7 @@
         <v>238</v>
       </c>
       <c r="H101" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I101" s="14"/>
       <c r="J101" s="14"/>
@@ -16591,7 +16412,7 @@
       <c r="B102" s="14"/>
       <c r="C102" s="8"/>
       <c r="D102" s="43" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
       <c r="E102" s="14"/>
       <c r="F102" s="13">
@@ -16601,7 +16422,7 @@
         <v>238</v>
       </c>
       <c r="H102" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I102" s="14"/>
       <c r="J102" s="14"/>
@@ -16611,7 +16432,7 @@
       <c r="B103" s="14"/>
       <c r="C103" s="8"/>
       <c r="D103" s="43" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="E103" s="14"/>
       <c r="F103" s="13">
@@ -16621,7 +16442,7 @@
         <v>238</v>
       </c>
       <c r="H103" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I103" s="14"/>
       <c r="J103" s="14"/>
@@ -16631,7 +16452,7 @@
       <c r="B104" s="14"/>
       <c r="C104" s="8"/>
       <c r="D104" s="43" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="E104" s="14"/>
       <c r="F104" s="13">
@@ -16641,7 +16462,7 @@
         <v>238</v>
       </c>
       <c r="H104" s="16" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="I104" s="14"/>
       <c r="J104" s="14"/>
@@ -16661,7 +16482,7 @@
         <v>238</v>
       </c>
       <c r="H105" s="16" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="I105" s="14"/>
       <c r="J105" s="14"/>
@@ -16671,7 +16492,7 @@
       <c r="B106" s="14"/>
       <c r="C106" s="8"/>
       <c r="D106" s="43" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="E106" s="14"/>
       <c r="F106" s="13">
@@ -16681,7 +16502,7 @@
         <v>238</v>
       </c>
       <c r="H106" s="16" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="I106" s="14"/>
       <c r="J106" s="14"/>
@@ -16701,7 +16522,7 @@
         <v>238</v>
       </c>
       <c r="H107" s="16" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="I107" s="14"/>
       <c r="J107" s="14"/>
@@ -16711,7 +16532,7 @@
       <c r="B108" s="14"/>
       <c r="C108" s="8"/>
       <c r="D108" s="43" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="13">
@@ -16721,7 +16542,7 @@
         <v>238</v>
       </c>
       <c r="H108" s="16" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="I108" s="14"/>
       <c r="J108" s="14"/>
@@ -16741,7 +16562,7 @@
         <v>238</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="I109" s="14"/>
       <c r="J109" s="14"/>
@@ -16751,7 +16572,7 @@
       <c r="B110" s="14"/>
       <c r="C110" s="8"/>
       <c r="D110" s="39" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="E110" s="14"/>
       <c r="F110" s="13">
@@ -16761,7 +16582,7 @@
         <v>238</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="I110" s="14"/>
       <c r="J110" s="14"/>
@@ -16771,7 +16592,7 @@
       <c r="B111" s="14"/>
       <c r="C111" s="8"/>
       <c r="D111" s="43" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="13">
@@ -16781,7 +16602,7 @@
         <v>238</v>
       </c>
       <c r="H111" s="16" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="I111" s="14"/>
       <c r="J111" s="14"/>
@@ -16791,7 +16612,7 @@
       <c r="B112" s="14"/>
       <c r="C112" s="8"/>
       <c r="D112" s="43" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="13">
@@ -16801,61 +16622,57 @@
         <v>238</v>
       </c>
       <c r="H112" s="16" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="I112" s="14"/>
       <c r="J112" s="14"/>
       <c r="K112" s="17"/>
     </row>
-    <row r="113" spans="2:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B113" s="14"/>
       <c r="C113" s="8"/>
       <c r="D113" s="43" t="s">
-        <v>783</v>
+        <v>836</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G113" s="14" t="s">
         <v>238</v>
       </c>
       <c r="H113" s="16" t="s">
-        <v>928</v>
+        <v>868</v>
       </c>
       <c r="I113" s="14"/>
-      <c r="J113" s="85" t="s">
-        <v>865</v>
-      </c>
+      <c r="J113" s="14"/>
       <c r="K113" s="17"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B114" s="14"/>
       <c r="C114" s="8"/>
       <c r="D114" s="43" t="s">
-        <v>784</v>
+        <v>837</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G114" s="14" t="s">
         <v>238</v>
       </c>
       <c r="H114" s="16" t="s">
-        <v>929</v>
+        <v>868</v>
       </c>
       <c r="I114" s="14"/>
-      <c r="J114" s="14" t="s">
-        <v>866</v>
-      </c>
+      <c r="J114" s="14"/>
       <c r="K114" s="17"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B115" s="14"/>
       <c r="C115" s="8"/>
       <c r="D115" s="43" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E115" s="14"/>
       <c r="F115" s="13">
@@ -16865,7 +16682,7 @@
         <v>238</v>
       </c>
       <c r="H115" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I115" s="14"/>
       <c r="J115" s="14"/>
@@ -16875,7 +16692,7 @@
       <c r="B116" s="14"/>
       <c r="C116" s="8"/>
       <c r="D116" s="43" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E116" s="14"/>
       <c r="F116" s="13">
@@ -16885,51 +16702,11 @@
         <v>238</v>
       </c>
       <c r="H116" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I116" s="14"/>
       <c r="J116" s="14"/>
       <c r="K116" s="17"/>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B117" s="14"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="43" t="s">
-        <v>842</v>
-      </c>
-      <c r="E117" s="14"/>
-      <c r="F117" s="13">
-        <v>14</v>
-      </c>
-      <c r="G117" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="H117" s="16" t="s">
-        <v>874</v>
-      </c>
-      <c r="I117" s="14"/>
-      <c r="J117" s="14"/>
-      <c r="K117" s="17"/>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B118" s="14"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="43" t="s">
-        <v>843</v>
-      </c>
-      <c r="E118" s="14"/>
-      <c r="F118" s="13">
-        <v>20</v>
-      </c>
-      <c r="G118" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="H118" s="16" t="s">
-        <v>874</v>
-      </c>
-      <c r="I118" s="14"/>
-      <c r="J118" s="14"/>
-      <c r="K118" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -16944,10 +16721,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K276"/>
+  <dimension ref="A1:K273"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView topLeftCell="A124" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D281" sqref="D281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -17013,7 +16790,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>370</v>
@@ -17067,7 +16844,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="10" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C5" s="24" t="s">
         <v>370</v>
@@ -17093,7 +16870,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C6" s="24" t="s">
         <v>370</v>
@@ -17145,7 +16922,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="10" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C8" s="24" t="s">
         <v>370</v>
@@ -17255,7 +17032,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B12" s="10" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>370</v>
@@ -17281,7 +17058,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B13" s="10" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="C13" s="24" t="s">
         <v>370</v>
@@ -17307,7 +17084,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="10" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C14" s="24" t="s">
         <v>370</v>
@@ -18784,7 +18561,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="63" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B70" s="64" t="s">
         <v>539</v>
@@ -20577,7 +20354,7 @@
       <c r="B141" s="14"/>
       <c r="C141" s="8"/>
       <c r="D141" s="40" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="E141" s="14"/>
       <c r="F141" s="13">
@@ -20587,7 +20364,7 @@
         <v>238</v>
       </c>
       <c r="H141" s="16" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I141" s="14"/>
       <c r="J141" s="14"/>
@@ -20609,7 +20386,7 @@
         <v>238</v>
       </c>
       <c r="H142" s="16" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="I142" s="14"/>
       <c r="J142" s="14"/>
@@ -20621,7 +20398,7 @@
       <c r="B143" s="14"/>
       <c r="C143" s="8"/>
       <c r="D143" s="43" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="E143" s="14"/>
       <c r="F143" s="13">
@@ -20631,7 +20408,7 @@
         <v>238</v>
       </c>
       <c r="H143" s="16" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="I143" s="14"/>
       <c r="J143" s="14"/>
@@ -20641,7 +20418,7 @@
       <c r="B144" s="14"/>
       <c r="C144" s="8"/>
       <c r="D144" s="43" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="E144" s="14"/>
       <c r="F144" s="13">
@@ -20675,7 +20452,7 @@
         <v>238</v>
       </c>
       <c r="H145" s="16" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="I145" s="14"/>
       <c r="J145" s="10" t="s">
@@ -20687,7 +20464,7 @@
       <c r="B146" s="14"/>
       <c r="C146" s="8"/>
       <c r="D146" s="39" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="E146" s="14"/>
       <c r="F146" s="13">
@@ -20709,7 +20486,7 @@
       <c r="B147" s="14"/>
       <c r="C147" s="8"/>
       <c r="D147" s="39" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="E147" s="14"/>
       <c r="F147" s="13">
@@ -20719,7 +20496,7 @@
         <v>238</v>
       </c>
       <c r="H147" s="16" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="I147" s="14"/>
       <c r="J147" s="14"/>
@@ -20729,7 +20506,7 @@
       <c r="B148" s="14"/>
       <c r="C148" s="8"/>
       <c r="D148" s="39" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="E148" s="14"/>
       <c r="F148" s="13">
@@ -20739,7 +20516,7 @@
         <v>238</v>
       </c>
       <c r="H148" s="16" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="I148" s="14"/>
       <c r="J148" s="14"/>
@@ -20749,7 +20526,7 @@
       <c r="B149" s="14"/>
       <c r="C149" s="8"/>
       <c r="D149" s="39" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="E149" s="14"/>
       <c r="F149" s="13">
@@ -20759,7 +20536,7 @@
         <v>238</v>
       </c>
       <c r="H149" s="16" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="I149" s="14"/>
       <c r="J149" s="14"/>
@@ -20769,7 +20546,7 @@
       <c r="B150" s="14"/>
       <c r="C150" s="8"/>
       <c r="D150" s="39" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="E150" s="14"/>
       <c r="F150" s="13">
@@ -20779,7 +20556,7 @@
         <v>238</v>
       </c>
       <c r="H150" s="16" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I150" s="14"/>
       <c r="J150" s="14"/>
@@ -20789,7 +20566,7 @@
       <c r="B151" s="14"/>
       <c r="C151" s="8"/>
       <c r="D151" s="39" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="E151" s="14"/>
       <c r="F151" s="13">
@@ -20829,7 +20606,7 @@
       <c r="B153" s="14"/>
       <c r="C153" s="8"/>
       <c r="D153" s="43" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="E153" s="14"/>
       <c r="F153" s="13">
@@ -20869,7 +20646,7 @@
       <c r="B155" s="14"/>
       <c r="C155" s="8"/>
       <c r="D155" s="43" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="E155" s="14"/>
       <c r="F155" s="13">
@@ -20889,7 +20666,7 @@
       <c r="B156" s="14"/>
       <c r="C156" s="8"/>
       <c r="D156" s="43" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="E156" s="14"/>
       <c r="F156" s="13">
@@ -20909,7 +20686,7 @@
       <c r="B157" s="14"/>
       <c r="C157" s="8"/>
       <c r="D157" s="43" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="E157" s="14"/>
       <c r="F157" s="13">
@@ -20929,7 +20706,7 @@
       <c r="B158" s="14"/>
       <c r="C158" s="8"/>
       <c r="D158" s="43" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="E158" s="14"/>
       <c r="F158" s="13">
@@ -20943,7 +20720,7 @@
       </c>
       <c r="I158" s="14"/>
       <c r="J158" s="14" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="K158" s="17"/>
     </row>
@@ -20951,7 +20728,7 @@
       <c r="B159" s="14"/>
       <c r="C159" s="8"/>
       <c r="D159" s="39" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="E159" s="14"/>
       <c r="F159" s="13">
@@ -20971,7 +20748,7 @@
       <c r="B160" s="14"/>
       <c r="C160" s="8"/>
       <c r="D160" s="43" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="E160" s="14"/>
       <c r="F160" s="13">
@@ -20991,7 +20768,7 @@
       <c r="B161" s="14"/>
       <c r="C161" s="8"/>
       <c r="D161" s="43" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="E161" s="14"/>
       <c r="F161" s="13">
@@ -21011,7 +20788,7 @@
       <c r="B162" s="14"/>
       <c r="C162" s="8"/>
       <c r="D162" s="43" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="E162" s="14"/>
       <c r="F162" s="13">
@@ -21031,7 +20808,7 @@
       <c r="B163" s="14"/>
       <c r="C163" s="8"/>
       <c r="D163" s="43" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="E163" s="14"/>
       <c r="F163" s="13">
@@ -21051,7 +20828,7 @@
       <c r="B164" s="14"/>
       <c r="C164" s="8"/>
       <c r="D164" s="39" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="E164" s="14"/>
       <c r="F164" s="13">
@@ -21071,7 +20848,7 @@
       <c r="B165" s="14"/>
       <c r="C165" s="8"/>
       <c r="D165" s="43" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="E165" s="14"/>
       <c r="F165" s="13">
@@ -21091,7 +20868,7 @@
       <c r="B166" s="14"/>
       <c r="C166" s="8"/>
       <c r="D166" s="43" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="E166" s="14"/>
       <c r="F166" s="13">
@@ -21111,7 +20888,7 @@
       <c r="B167" s="14"/>
       <c r="C167" s="8"/>
       <c r="D167" s="43" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="E167" s="14"/>
       <c r="F167" s="13">
@@ -21131,7 +20908,7 @@
       <c r="B168" s="14"/>
       <c r="C168" s="8"/>
       <c r="D168" s="43" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="E168" s="14"/>
       <c r="F168" s="13">
@@ -21151,7 +20928,7 @@
       <c r="B169" s="14"/>
       <c r="C169" s="8"/>
       <c r="D169" s="43" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="E169" s="14"/>
       <c r="F169" s="13">
@@ -21171,7 +20948,7 @@
       <c r="B170" s="14"/>
       <c r="C170" s="8"/>
       <c r="D170" s="39" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="E170" s="14"/>
       <c r="F170" s="13">
@@ -21211,7 +20988,7 @@
       <c r="B172" s="14"/>
       <c r="C172" s="8"/>
       <c r="D172" s="43" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="E172" s="14"/>
       <c r="F172" s="13">
@@ -21251,7 +21028,7 @@
       <c r="B174" s="14"/>
       <c r="C174" s="8"/>
       <c r="D174" s="43" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="E174" s="14"/>
       <c r="F174" s="13">
@@ -21271,7 +21048,7 @@
       <c r="B175" s="14"/>
       <c r="C175" s="8"/>
       <c r="D175" s="43" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="E175" s="14"/>
       <c r="F175" s="13">
@@ -21291,7 +21068,7 @@
       <c r="B176" s="14"/>
       <c r="C176" s="8"/>
       <c r="D176" s="43" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="E176" s="14"/>
       <c r="F176" s="13">
@@ -21305,7 +21082,7 @@
       </c>
       <c r="I176" s="14"/>
       <c r="J176" s="14" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="K176" s="17"/>
     </row>
@@ -21313,7 +21090,7 @@
       <c r="B177" s="14"/>
       <c r="C177" s="8"/>
       <c r="D177" s="43" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="E177" s="14"/>
       <c r="F177" s="13">
@@ -21353,7 +21130,7 @@
       <c r="B179" s="14"/>
       <c r="C179" s="8"/>
       <c r="D179" s="43" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="E179" s="14"/>
       <c r="F179" s="13">
@@ -21393,7 +21170,7 @@
       <c r="B181" s="14"/>
       <c r="C181" s="8"/>
       <c r="D181" s="43" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="E181" s="14"/>
       <c r="F181" s="13">
@@ -21413,7 +21190,7 @@
       <c r="B182" s="14"/>
       <c r="C182" s="8"/>
       <c r="D182" s="43" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="E182" s="14"/>
       <c r="F182" s="13">
@@ -21453,7 +21230,7 @@
       <c r="B184" s="14"/>
       <c r="C184" s="8"/>
       <c r="D184" s="43" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="E184" s="14"/>
       <c r="F184" s="13">
@@ -21473,7 +21250,7 @@
       <c r="B185" s="14"/>
       <c r="C185" s="8"/>
       <c r="D185" s="43" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="E185" s="14"/>
       <c r="F185" s="13">
@@ -21493,7 +21270,7 @@
       <c r="B186" s="14"/>
       <c r="C186" s="8"/>
       <c r="D186" s="43" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="E186" s="14"/>
       <c r="F186" s="13">
@@ -21513,7 +21290,7 @@
       <c r="B187" s="14"/>
       <c r="C187" s="8"/>
       <c r="D187" s="43" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="E187" s="14"/>
       <c r="F187" s="13">
@@ -21533,7 +21310,7 @@
       <c r="B188" s="14"/>
       <c r="C188" s="8"/>
       <c r="D188" s="43" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="E188" s="14"/>
       <c r="F188" s="13">
@@ -21553,7 +21330,7 @@
       <c r="B189" s="14"/>
       <c r="C189" s="8"/>
       <c r="D189" s="43" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E189" s="14"/>
       <c r="F189" s="13">
@@ -21573,7 +21350,7 @@
       <c r="B190" s="14"/>
       <c r="C190" s="8"/>
       <c r="D190" s="43" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="E190" s="14"/>
       <c r="F190" s="13">
@@ -21593,7 +21370,7 @@
       <c r="B191" s="14"/>
       <c r="C191" s="8"/>
       <c r="D191" s="43" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="E191" s="14"/>
       <c r="F191" s="13">
@@ -21613,7 +21390,7 @@
       <c r="B192" s="14"/>
       <c r="C192" s="8"/>
       <c r="D192" s="43" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="E192" s="14"/>
       <c r="F192" s="13">
@@ -21633,7 +21410,7 @@
       <c r="B193" s="14"/>
       <c r="C193" s="8"/>
       <c r="D193" s="43" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="E193" s="14"/>
       <c r="F193" s="13">
@@ -21643,11 +21420,11 @@
         <v>238</v>
       </c>
       <c r="H193" s="16" t="s">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="I193" s="14"/>
       <c r="J193" s="14" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="K193" s="17"/>
     </row>
@@ -21655,7 +21432,7 @@
       <c r="B194" s="14"/>
       <c r="C194" s="8"/>
       <c r="D194" s="43" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="E194" s="14"/>
       <c r="F194" s="13">
@@ -21665,7 +21442,7 @@
         <v>238</v>
       </c>
       <c r="H194" s="16" t="s">
-        <v>1025</v>
+        <v>1016</v>
       </c>
       <c r="I194" s="14"/>
       <c r="J194" s="14" t="s">
@@ -21679,7 +21456,7 @@
       <c r="B195" s="14"/>
       <c r="C195" s="8"/>
       <c r="D195" s="43" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E195" s="14"/>
       <c r="F195" s="13">
@@ -21689,7 +21466,7 @@
         <v>238</v>
       </c>
       <c r="H195" s="16" t="s">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="I195" s="14"/>
       <c r="J195" s="14"/>
@@ -21699,7 +21476,7 @@
       <c r="B196" s="14"/>
       <c r="C196" s="8"/>
       <c r="D196" s="43" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="E196" s="14"/>
       <c r="F196" s="13">
@@ -21709,7 +21486,7 @@
         <v>238</v>
       </c>
       <c r="H196" s="16" t="s">
-        <v>1026</v>
+        <v>1017</v>
       </c>
       <c r="I196" s="14"/>
       <c r="J196" s="14"/>
@@ -21719,7 +21496,7 @@
       <c r="B197" s="14"/>
       <c r="C197" s="8"/>
       <c r="D197" s="43" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="E197" s="14"/>
       <c r="F197" s="13">
@@ -21729,7 +21506,7 @@
         <v>238</v>
       </c>
       <c r="H197" s="16" t="s">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="I197" s="14"/>
       <c r="J197" s="14"/>
@@ -21737,12 +21514,12 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A198" s="63" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B198" s="14"/>
       <c r="C198" s="8"/>
       <c r="D198" s="43" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="E198" s="14"/>
       <c r="F198" s="13">
@@ -21752,7 +21529,7 @@
         <v>238</v>
       </c>
       <c r="H198" s="16" t="s">
-        <v>1028</v>
+        <v>1019</v>
       </c>
       <c r="I198" s="14"/>
       <c r="J198" s="14"/>
@@ -21762,7 +21539,7 @@
       <c r="B199" s="14"/>
       <c r="C199" s="8"/>
       <c r="D199" s="43" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="E199" s="14"/>
       <c r="F199" s="13">
@@ -21772,7 +21549,7 @@
         <v>238</v>
       </c>
       <c r="H199" s="16" t="s">
-        <v>1029</v>
+        <v>1020</v>
       </c>
       <c r="I199" s="14"/>
       <c r="J199" s="14"/>
@@ -21782,7 +21559,7 @@
       <c r="B200" s="14"/>
       <c r="C200" s="8"/>
       <c r="D200" s="43" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="E200" s="14"/>
       <c r="F200" s="13">
@@ -21792,7 +21569,7 @@
         <v>238</v>
       </c>
       <c r="H200" s="16" t="s">
-        <v>1030</v>
+        <v>1021</v>
       </c>
       <c r="I200" s="14"/>
       <c r="J200" s="14"/>
@@ -21802,7 +21579,7 @@
       <c r="B201" s="14"/>
       <c r="C201" s="8"/>
       <c r="D201" s="43" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="E201" s="14"/>
       <c r="F201" s="13">
@@ -21812,7 +21589,7 @@
         <v>238</v>
       </c>
       <c r="H201" s="16" t="s">
-        <v>1031</v>
+        <v>1022</v>
       </c>
       <c r="I201" s="14"/>
       <c r="J201" s="14"/>
@@ -21822,7 +21599,7 @@
       <c r="B202" s="14"/>
       <c r="C202" s="8"/>
       <c r="D202" s="43" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="E202" s="14"/>
       <c r="F202" s="13">
@@ -21832,7 +21609,7 @@
         <v>238</v>
       </c>
       <c r="H202" s="16" t="s">
-        <v>1032</v>
+        <v>1023</v>
       </c>
       <c r="I202" s="14"/>
       <c r="J202" s="14"/>
@@ -21842,7 +21619,7 @@
       <c r="B203" s="14"/>
       <c r="C203" s="8"/>
       <c r="D203" s="43" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E203" s="14"/>
       <c r="F203" s="13">
@@ -21852,7 +21629,7 @@
         <v>238</v>
       </c>
       <c r="H203" s="16" t="s">
-        <v>1033</v>
+        <v>1024</v>
       </c>
       <c r="I203" s="14"/>
       <c r="J203" s="14"/>
@@ -21862,7 +21639,7 @@
       <c r="B204" s="14"/>
       <c r="C204" s="8"/>
       <c r="D204" s="43" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="E204" s="14"/>
       <c r="F204" s="13">
@@ -21872,11 +21649,11 @@
         <v>238</v>
       </c>
       <c r="H204" s="16" t="s">
-        <v>1034</v>
+        <v>1025</v>
       </c>
       <c r="I204" s="14"/>
       <c r="J204" s="14" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="K204" s="17"/>
     </row>
@@ -21884,7 +21661,7 @@
       <c r="B205" s="14"/>
       <c r="C205" s="8"/>
       <c r="D205" s="43" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="E205" s="14"/>
       <c r="F205" s="13">
@@ -21894,7 +21671,7 @@
         <v>238</v>
       </c>
       <c r="H205" s="16" t="s">
-        <v>1035</v>
+        <v>1026</v>
       </c>
       <c r="I205" s="14"/>
       <c r="J205" s="14" t="s">
@@ -21908,7 +21685,7 @@
       <c r="B206" s="14"/>
       <c r="C206" s="8"/>
       <c r="D206" s="43" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="E206" s="14"/>
       <c r="F206" s="13">
@@ -21918,7 +21695,7 @@
         <v>238</v>
       </c>
       <c r="H206" s="16" t="s">
-        <v>1023</v>
+        <v>1014</v>
       </c>
       <c r="I206" s="14"/>
       <c r="J206" s="14"/>
@@ -21928,7 +21705,7 @@
       <c r="B207" s="14"/>
       <c r="C207" s="8"/>
       <c r="D207" s="43" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="E207" s="14"/>
       <c r="F207" s="13">
@@ -21938,7 +21715,7 @@
         <v>238</v>
       </c>
       <c r="H207" s="16" t="s">
-        <v>1036</v>
+        <v>1027</v>
       </c>
       <c r="I207" s="14"/>
       <c r="J207" s="14"/>
@@ -21948,7 +21725,7 @@
       <c r="B208" s="14"/>
       <c r="C208" s="8"/>
       <c r="D208" s="43" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="E208" s="14"/>
       <c r="F208" s="13">
@@ -21958,7 +21735,7 @@
         <v>238</v>
       </c>
       <c r="H208" s="16" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="I208" s="14"/>
       <c r="J208" s="14"/>
@@ -21966,12 +21743,12 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A209" s="63" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B209" s="14"/>
       <c r="C209" s="8"/>
       <c r="D209" s="43" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="E209" s="14"/>
       <c r="F209" s="13">
@@ -21981,7 +21758,7 @@
         <v>238</v>
       </c>
       <c r="H209" s="16" t="s">
-        <v>1038</v>
+        <v>1029</v>
       </c>
       <c r="I209" s="14"/>
       <c r="J209" s="14"/>
@@ -21991,7 +21768,7 @@
       <c r="B210" s="14"/>
       <c r="C210" s="8"/>
       <c r="D210" s="43" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="E210" s="14"/>
       <c r="F210" s="13">
@@ -22001,7 +21778,7 @@
         <v>238</v>
       </c>
       <c r="H210" s="16" t="s">
-        <v>1039</v>
+        <v>1030</v>
       </c>
       <c r="I210" s="14"/>
       <c r="J210" s="14"/>
@@ -22011,7 +21788,7 @@
       <c r="B211" s="14"/>
       <c r="C211" s="8"/>
       <c r="D211" s="43" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="E211" s="14"/>
       <c r="F211" s="13">
@@ -22021,7 +21798,7 @@
         <v>238</v>
       </c>
       <c r="H211" s="16" t="s">
-        <v>1040</v>
+        <v>1031</v>
       </c>
       <c r="I211" s="14"/>
       <c r="J211" s="14"/>
@@ -22031,7 +21808,7 @@
       <c r="B212" s="14"/>
       <c r="C212" s="8"/>
       <c r="D212" s="43" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="E212" s="14"/>
       <c r="F212" s="13">
@@ -22041,7 +21818,7 @@
         <v>238</v>
       </c>
       <c r="H212" s="16" t="s">
-        <v>1041</v>
+        <v>1032</v>
       </c>
       <c r="I212" s="14"/>
       <c r="J212" s="14"/>
@@ -22051,7 +21828,7 @@
       <c r="B213" s="14"/>
       <c r="C213" s="8"/>
       <c r="D213" s="43" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="E213" s="14"/>
       <c r="F213" s="13">
@@ -22061,7 +21838,7 @@
         <v>238</v>
       </c>
       <c r="H213" s="16" t="s">
-        <v>1042</v>
+        <v>1033</v>
       </c>
       <c r="I213" s="14"/>
       <c r="J213" s="14"/>
@@ -22071,7 +21848,7 @@
       <c r="B214" s="14"/>
       <c r="C214" s="8"/>
       <c r="D214" s="43" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="E214" s="14"/>
       <c r="F214" s="13">
@@ -22081,7 +21858,7 @@
         <v>238</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>1043</v>
+        <v>1034</v>
       </c>
       <c r="I214" s="14"/>
       <c r="J214" s="14"/>
@@ -22101,7 +21878,7 @@
         <v>238</v>
       </c>
       <c r="H215" s="16" t="s">
-        <v>1044</v>
+        <v>1035</v>
       </c>
       <c r="I215" s="14"/>
       <c r="J215" s="14"/>
@@ -22111,7 +21888,7 @@
       <c r="B216" s="14"/>
       <c r="C216" s="8"/>
       <c r="D216" s="43" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="E216" s="14"/>
       <c r="F216" s="13">
@@ -22155,7 +21932,7 @@
       <c r="B218" s="14"/>
       <c r="C218" s="8"/>
       <c r="D218" s="43" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="E218" s="14"/>
       <c r="F218" s="13">
@@ -22213,7 +21990,7 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A221" s="63" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B221" s="14"/>
       <c r="C221" s="8"/>
@@ -22258,7 +22035,7 @@
       <c r="B223" s="14"/>
       <c r="C223" s="8"/>
       <c r="D223" s="43" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="E223" s="14"/>
       <c r="F223" s="13">
@@ -22278,7 +22055,7 @@
       <c r="B224" s="14"/>
       <c r="C224" s="8"/>
       <c r="D224" s="43" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="E224" s="14"/>
       <c r="F224" s="13">
@@ -22298,7 +22075,7 @@
       <c r="B225" s="14"/>
       <c r="C225" s="8"/>
       <c r="D225" s="43" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="E225" s="14"/>
       <c r="F225" s="13">
@@ -22322,7 +22099,7 @@
       <c r="B226" s="14"/>
       <c r="C226" s="8"/>
       <c r="D226" s="43" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="E226" s="14"/>
       <c r="F226" s="13">
@@ -22362,7 +22139,7 @@
       <c r="B228" s="14"/>
       <c r="C228" s="8"/>
       <c r="D228" s="43" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="E228" s="14"/>
       <c r="F228" s="13">
@@ -22420,7 +22197,7 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A231" s="63" t="s">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="B231" s="14"/>
       <c r="C231" s="8"/>
@@ -22465,7 +22242,7 @@
       <c r="B233" s="14"/>
       <c r="C233" s="8"/>
       <c r="D233" s="43" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="E233" s="14"/>
       <c r="F233" s="13">
@@ -22485,7 +22262,7 @@
       <c r="B234" s="14"/>
       <c r="C234" s="8"/>
       <c r="D234" s="43" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="E234" s="14"/>
       <c r="F234" s="13">
@@ -22505,7 +22282,7 @@
       <c r="B235" s="14"/>
       <c r="C235" s="8"/>
       <c r="D235" s="43" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="E235" s="14"/>
       <c r="F235" s="13">
@@ -22531,8 +22308,8 @@
       <c r="F236" s="13">
         <v>255</v>
       </c>
-      <c r="G236" s="90" t="s">
-        <v>986</v>
+      <c r="G236" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H236" s="16" t="s">
         <v>34</v>
@@ -22545,14 +22322,14 @@
       <c r="B237" s="14"/>
       <c r="C237" s="8"/>
       <c r="D237" s="43" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="E237" s="14"/>
       <c r="F237" s="13">
         <v>10</v>
       </c>
-      <c r="G237" s="90" t="s">
-        <v>986</v>
+      <c r="G237" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H237" s="16" t="s">
         <v>34</v>
@@ -22565,14 +22342,14 @@
       <c r="B238" s="14"/>
       <c r="C238" s="8"/>
       <c r="D238" s="43" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="E238" s="14"/>
       <c r="F238" s="13">
         <v>10</v>
       </c>
-      <c r="G238" s="90" t="s">
-        <v>986</v>
+      <c r="G238" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H238" s="16" t="s">
         <v>34</v>
@@ -22585,14 +22362,14 @@
       <c r="B239" s="14"/>
       <c r="C239" s="8"/>
       <c r="D239" s="43" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="E239" s="14"/>
       <c r="F239" s="13">
         <v>10</v>
       </c>
-      <c r="G239" s="90" t="s">
-        <v>986</v>
+      <c r="G239" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H239" s="16" t="s">
         <v>34</v>
@@ -22605,14 +22382,14 @@
       <c r="B240" s="14"/>
       <c r="C240" s="8"/>
       <c r="D240" s="43" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="E240" s="14"/>
       <c r="F240" s="13">
         <v>10</v>
       </c>
-      <c r="G240" s="90" t="s">
-        <v>986</v>
+      <c r="G240" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H240" s="16" t="s">
         <v>34</v>
@@ -22625,14 +22402,14 @@
       <c r="B241" s="14"/>
       <c r="C241" s="8"/>
       <c r="D241" s="43" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="E241" s="14"/>
       <c r="F241" s="13">
         <v>10</v>
       </c>
-      <c r="G241" s="90" t="s">
-        <v>986</v>
+      <c r="G241" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H241" s="16" t="s">
         <v>34</v>
@@ -22645,14 +22422,14 @@
       <c r="B242" s="14"/>
       <c r="C242" s="8"/>
       <c r="D242" s="43" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="E242" s="14"/>
       <c r="F242" s="13">
         <v>10</v>
       </c>
-      <c r="G242" s="90" t="s">
-        <v>986</v>
+      <c r="G242" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H242" s="16" t="s">
         <v>34</v>
@@ -22665,17 +22442,17 @@
       <c r="B243" s="14"/>
       <c r="C243" s="8"/>
       <c r="D243" s="43" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="E243" s="14"/>
       <c r="F243" s="13">
         <v>1</v>
       </c>
-      <c r="G243" s="90" t="s">
-        <v>986</v>
+      <c r="G243" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H243" s="16" t="s">
-        <v>1045</v>
+        <v>1036</v>
       </c>
       <c r="I243" s="14"/>
       <c r="J243" s="14"/>
@@ -22685,17 +22462,17 @@
       <c r="B244" s="14"/>
       <c r="C244" s="8"/>
       <c r="D244" s="43" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="E244" s="14"/>
       <c r="F244" s="13">
         <v>8</v>
       </c>
-      <c r="G244" s="90" t="s">
-        <v>986</v>
+      <c r="G244" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H244" s="16" t="s">
-        <v>1046</v>
+        <v>1037</v>
       </c>
       <c r="I244" s="14"/>
       <c r="J244" s="14"/>
@@ -22708,17 +22485,17 @@
       <c r="B245" s="14"/>
       <c r="C245" s="8"/>
       <c r="D245" s="43" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="E245" s="14"/>
       <c r="F245" s="13">
         <v>80</v>
       </c>
-      <c r="G245" s="90" t="s">
-        <v>986</v>
+      <c r="G245" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H245" s="16" t="s">
-        <v>1047</v>
+        <v>1038</v>
       </c>
       <c r="I245" s="14"/>
       <c r="J245" s="14"/>
@@ -22728,17 +22505,17 @@
       <c r="B246" s="14"/>
       <c r="C246" s="8"/>
       <c r="D246" s="43" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
       <c r="E246" s="14"/>
       <c r="F246" s="13">
         <v>10</v>
       </c>
-      <c r="G246" s="90" t="s">
-        <v>986</v>
+      <c r="G246" s="88" t="s">
+        <v>978</v>
       </c>
       <c r="H246" s="16" t="s">
-        <v>1048</v>
+        <v>1039</v>
       </c>
       <c r="I246" s="14"/>
       <c r="J246" s="14"/>
@@ -22748,17 +22525,17 @@
       <c r="B247" s="14"/>
       <c r="C247" s="8"/>
       <c r="D247" s="43" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="E247" s="14"/>
       <c r="F247" s="13">
         <v>255</v>
       </c>
       <c r="G247" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H247" s="16" t="s">
-        <v>1049</v>
+        <v>1040</v>
       </c>
       <c r="I247" s="14"/>
       <c r="J247" s="14"/>
@@ -22768,40 +22545,37 @@
       <c r="B248" s="14"/>
       <c r="C248" s="8"/>
       <c r="D248" s="43" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="E248" s="14"/>
       <c r="F248" s="13">
         <v>8</v>
       </c>
       <c r="G248" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H248" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I248" s="14"/>
       <c r="J248" s="14"/>
       <c r="K248" s="17"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A249" s="81" t="s">
-        <v>599</v>
-      </c>
       <c r="B249" s="14"/>
       <c r="C249" s="8"/>
       <c r="D249" s="43" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="E249" s="14"/>
       <c r="F249" s="13">
         <v>80</v>
       </c>
       <c r="G249" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H249" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I249" s="14"/>
       <c r="J249" s="14"/>
@@ -22811,17 +22585,17 @@
       <c r="B250" s="14"/>
       <c r="C250" s="8"/>
       <c r="D250" s="43" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="E250" s="14"/>
       <c r="F250" s="13">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="G250" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H250" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I250" s="14"/>
       <c r="J250" s="14"/>
@@ -22831,17 +22605,17 @@
       <c r="B251" s="14"/>
       <c r="C251" s="8"/>
       <c r="D251" s="43" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="E251" s="14"/>
       <c r="F251" s="13">
         <v>255</v>
       </c>
       <c r="G251" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H251" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I251" s="14"/>
       <c r="J251" s="14"/>
@@ -22851,17 +22625,17 @@
       <c r="B252" s="14"/>
       <c r="C252" s="8"/>
       <c r="D252" s="43" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="E252" s="14"/>
       <c r="F252" s="13">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="G252" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H252" s="16" t="s">
-        <v>874</v>
+        <v>1041</v>
       </c>
       <c r="I252" s="14"/>
       <c r="J252" s="14"/>
@@ -22871,17 +22645,17 @@
       <c r="B253" s="14"/>
       <c r="C253" s="8"/>
       <c r="D253" s="43" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
       <c r="E253" s="14"/>
       <c r="F253" s="13">
         <v>1</v>
       </c>
       <c r="G253" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H253" s="16" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="I253" s="14"/>
       <c r="J253" s="14"/>
@@ -22891,17 +22665,17 @@
       <c r="B254" s="14"/>
       <c r="C254" s="8"/>
       <c r="D254" s="43" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
       <c r="E254" s="14"/>
       <c r="F254" s="13">
         <v>1</v>
       </c>
       <c r="G254" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H254" s="16" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="I254" s="14"/>
       <c r="J254" s="14"/>
@@ -22911,17 +22685,17 @@
       <c r="B255" s="14"/>
       <c r="C255" s="8"/>
       <c r="D255" s="43" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
       <c r="E255" s="14"/>
       <c r="F255" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G255" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H255" s="16" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="I255" s="14"/>
       <c r="J255" s="14"/>
@@ -22931,17 +22705,17 @@
       <c r="B256" s="14"/>
       <c r="C256" s="8"/>
       <c r="D256" s="43" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
       <c r="E256" s="14"/>
       <c r="F256" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G256" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H256" s="16" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="I256" s="14"/>
       <c r="J256" s="14"/>
@@ -22951,17 +22725,17 @@
       <c r="B257" s="14"/>
       <c r="C257" s="8"/>
       <c r="D257" s="43" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="E257" s="14"/>
       <c r="F257" s="13">
         <v>1</v>
       </c>
       <c r="G257" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H257" s="16" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="I257" s="14"/>
       <c r="J257" s="14"/>
@@ -22971,17 +22745,17 @@
       <c r="B258" s="14"/>
       <c r="C258" s="8"/>
       <c r="D258" s="43" t="s">
-        <v>1020</v>
+        <v>994</v>
       </c>
       <c r="E258" s="14"/>
       <c r="F258" s="13">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="G258" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H258" s="16" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="I258" s="14"/>
       <c r="J258" s="14"/>
@@ -22991,17 +22765,17 @@
       <c r="B259" s="14"/>
       <c r="C259" s="8"/>
       <c r="D259" s="43" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="E259" s="14"/>
       <c r="F259" s="13">
-        <v>255</v>
+        <v>1</v>
       </c>
       <c r="G259" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H259" s="16" t="s">
-        <v>1056</v>
+        <v>868</v>
       </c>
       <c r="I259" s="14"/>
       <c r="J259" s="14"/>
@@ -23011,17 +22785,17 @@
       <c r="B260" s="14"/>
       <c r="C260" s="8"/>
       <c r="D260" s="43" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="E260" s="14"/>
       <c r="F260" s="13">
         <v>1</v>
       </c>
       <c r="G260" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H260" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I260" s="14"/>
       <c r="J260" s="14"/>
@@ -23031,17 +22805,17 @@
       <c r="B261" s="14"/>
       <c r="C261" s="8"/>
       <c r="D261" s="43" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="E261" s="14"/>
       <c r="F261" s="13">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="G261" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H261" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I261" s="14"/>
       <c r="J261" s="14"/>
@@ -23051,17 +22825,17 @@
       <c r="B262" s="14"/>
       <c r="C262" s="8"/>
       <c r="D262" s="43" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="E262" s="14"/>
       <c r="F262" s="13">
-        <v>80</v>
+        <v>128</v>
       </c>
       <c r="G262" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H262" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I262" s="14"/>
       <c r="J262" s="14"/>
@@ -23071,17 +22845,17 @@
       <c r="B263" s="14"/>
       <c r="C263" s="8"/>
       <c r="D263" s="43" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="E263" s="14"/>
       <c r="F263" s="13">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="G263" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H263" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I263" s="14"/>
       <c r="J263" s="14"/>
@@ -23091,17 +22865,17 @@
       <c r="B264" s="14"/>
       <c r="C264" s="8"/>
       <c r="D264" s="43" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="E264" s="14"/>
       <c r="F264" s="13">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="G264" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H264" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I264" s="14"/>
       <c r="J264" s="14"/>
@@ -23111,17 +22885,17 @@
       <c r="B265" s="14"/>
       <c r="C265" s="8"/>
       <c r="D265" s="43" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="E265" s="14"/>
       <c r="F265" s="13">
         <v>5</v>
       </c>
       <c r="G265" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H265" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I265" s="14"/>
       <c r="J265" s="14"/>
@@ -23131,17 +22905,17 @@
       <c r="B266" s="14"/>
       <c r="C266" s="8"/>
       <c r="D266" s="43" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="E266" s="14"/>
       <c r="F266" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G266" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H266" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I266" s="14"/>
       <c r="J266" s="14"/>
@@ -23151,17 +22925,17 @@
       <c r="B267" s="14"/>
       <c r="C267" s="8"/>
       <c r="D267" s="43" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="E267" s="14"/>
       <c r="F267" s="13">
-        <v>1</v>
+        <v>255</v>
       </c>
       <c r="G267" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H267" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I267" s="14"/>
       <c r="J267" s="14"/>
@@ -23171,17 +22945,17 @@
       <c r="B268" s="14"/>
       <c r="C268" s="8"/>
       <c r="D268" s="43" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="E268" s="14"/>
       <c r="F268" s="13">
-        <v>255</v>
+        <v>10</v>
       </c>
       <c r="G268" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H268" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I268" s="14"/>
       <c r="J268" s="14"/>
@@ -23191,17 +22965,17 @@
       <c r="B269" s="14"/>
       <c r="C269" s="8"/>
       <c r="D269" s="43" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="E269" s="14"/>
       <c r="F269" s="13">
         <v>10</v>
       </c>
       <c r="G269" s="14" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="H269" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I269" s="14"/>
       <c r="J269" s="14"/>
@@ -23211,17 +22985,17 @@
       <c r="B270" s="14"/>
       <c r="C270" s="8"/>
       <c r="D270" s="43" t="s">
-        <v>1014</v>
+        <v>836</v>
       </c>
       <c r="E270" s="14"/>
       <c r="F270" s="13">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G270" s="14" t="s">
-        <v>986</v>
+        <v>238</v>
       </c>
       <c r="H270" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I270" s="14"/>
       <c r="J270" s="14"/>
@@ -23231,17 +23005,17 @@
       <c r="B271" s="14"/>
       <c r="C271" s="8"/>
       <c r="D271" s="43" t="s">
-        <v>783</v>
+        <v>837</v>
       </c>
       <c r="E271" s="14"/>
       <c r="F271" s="13">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G271" s="14" t="s">
-        <v>986</v>
+        <v>238</v>
       </c>
       <c r="H271" s="16" t="s">
-        <v>1057</v>
+        <v>868</v>
       </c>
       <c r="I271" s="14"/>
       <c r="J271" s="14"/>
@@ -23251,17 +23025,17 @@
       <c r="B272" s="14"/>
       <c r="C272" s="8"/>
       <c r="D272" s="43" t="s">
-        <v>784</v>
+        <v>838</v>
       </c>
       <c r="E272" s="14"/>
       <c r="F272" s="13">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="G272" s="14" t="s">
-        <v>986</v>
+        <v>238</v>
       </c>
       <c r="H272" s="16" t="s">
-        <v>1058</v>
+        <v>868</v>
       </c>
       <c r="I272" s="14"/>
       <c r="J272" s="14"/>
@@ -23271,81 +23045,21 @@
       <c r="B273" s="14"/>
       <c r="C273" s="8"/>
       <c r="D273" s="43" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E273" s="14"/>
       <c r="F273" s="13">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G273" s="14" t="s">
         <v>238</v>
       </c>
       <c r="H273" s="16" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I273" s="14"/>
       <c r="J273" s="14"/>
       <c r="K273" s="17"/>
-    </row>
-    <row r="274" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B274" s="14"/>
-      <c r="C274" s="8"/>
-      <c r="D274" s="43" t="s">
-        <v>841</v>
-      </c>
-      <c r="E274" s="14"/>
-      <c r="F274" s="13">
-        <v>20</v>
-      </c>
-      <c r="G274" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="H274" s="16" t="s">
-        <v>874</v>
-      </c>
-      <c r="I274" s="14"/>
-      <c r="J274" s="14"/>
-      <c r="K274" s="17"/>
-    </row>
-    <row r="275" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B275" s="14"/>
-      <c r="C275" s="8"/>
-      <c r="D275" s="43" t="s">
-        <v>842</v>
-      </c>
-      <c r="E275" s="14"/>
-      <c r="F275" s="13">
-        <v>14</v>
-      </c>
-      <c r="G275" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="H275" s="16" t="s">
-        <v>874</v>
-      </c>
-      <c r="I275" s="14"/>
-      <c r="J275" s="14"/>
-      <c r="K275" s="17"/>
-    </row>
-    <row r="276" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B276" s="14"/>
-      <c r="C276" s="8"/>
-      <c r="D276" s="43" t="s">
-        <v>843</v>
-      </c>
-      <c r="E276" s="14"/>
-      <c r="F276" s="13">
-        <v>20</v>
-      </c>
-      <c r="G276" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="H276" s="16" t="s">
-        <v>874</v>
-      </c>
-      <c r="I276" s="14"/>
-      <c r="J276" s="14"/>
-      <c r="K276" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -24522,7 +24236,7 @@
       </c>
       <c r="I47" s="14"/>
       <c r="J47" s="14" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="K47" s="40" t="s">
         <v>677</v>
